--- a/用例数据/沪A/各种证券变动/00B/测试结果.xlsx
+++ b/用例数据/沪A/各种证券变动/00B/测试结果.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="2" r:id="rId1"/>
-    <sheet name="stklistextend" sheetId="3" r:id="rId2"/>
-    <sheet name="exchangerights" sheetId="4" r:id="rId3"/>
-    <sheet name="tradinglog" sheetId="5" r:id="rId4"/>
+    <sheet name="stklist2022" sheetId="6" r:id="rId2"/>
+    <sheet name="stklistextend" sheetId="3" r:id="rId3"/>
+    <sheet name="exchangerights" sheetId="4" r:id="rId4"/>
+    <sheet name="tradinglog" sheetId="5" r:id="rId5"/>
+    <sheet name="stklistextend2022" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="374">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -906,9 +908,6 @@
     <t>32.22000000</t>
   </si>
   <si>
-    <t>-260050.0000</t>
-  </si>
-  <si>
     <t>-5000</t>
   </si>
   <si>
@@ -1132,6 +1131,21 @@
   </si>
   <si>
     <t>000007065176</t>
+  </si>
+  <si>
+    <t>51100.000</t>
+  </si>
+  <si>
+    <t>27700.000</t>
+  </si>
+  <si>
+    <t>16100.000</t>
+  </si>
+  <si>
+    <t>5.5000</t>
+  </si>
+  <si>
+    <t>20221216000000</t>
   </si>
 </sst>
 </file>
@@ -1477,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH6"/>
+  <dimension ref="A1:CH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1557,781 +1571,787 @@
     <col min="79" max="79" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CA1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CB1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CC1" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CD1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CE1" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CF1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CG1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CH1" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AA2" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AP2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AQ2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR2" s="1" t="s">
+      <c r="AQ2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BN2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BR2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="BS2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CH2" s="1" t="s">
+      <c r="BS2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BX2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CB2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CC2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CH2" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AA3" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AP3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AQ3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR3" s="1" t="s">
+      <c r="AQ3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BR3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="BS3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CC3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CH3" s="1" t="s">
+      <c r="BS3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BX3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CB3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CC3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CH3" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
@@ -2351,34 +2371,34 @@
         <v>92</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>81</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>83</v>
+        <v>289</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>81</v>
@@ -2411,7 +2431,7 @@
         <v>87</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>81</v>
@@ -2531,10 +2551,10 @@
         <v>81</v>
       </c>
       <c r="BO4" s="3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="BP4" s="3" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="BQ4" s="3" t="s">
         <v>83</v>
@@ -2578,9 +2598,7 @@
       <c r="CD4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="CE4" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="CE4" s="3"/>
       <c r="CF4" s="3" t="s">
         <v>81</v>
       </c>
@@ -2591,267 +2609,6 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:86" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BA5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BB5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BF5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BH5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BJ5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BK5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BL5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BM5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BN5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BO5" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="BP5" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="BQ5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="BS5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BT5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BU5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BV5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BW5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BX5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BY5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BZ5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="CA5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="CB5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="CC5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="CD5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="CG5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="CH5" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:86" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2861,24 +2618,1493 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CA26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="BW1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="CA1" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA3" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="BL4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BR4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BV4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BX4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BZ4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA4" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="BK5" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="BL5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BR5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BV5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BX5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BZ5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA5" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ6" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="BK6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BR6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BV6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BX6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BZ6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA6" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2903,22 +4129,22 @@
       <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>97</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>98</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -2928,13 +4154,13 @@
         <v>158</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>127</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2959,29 +4185,29 @@
       <c r="G2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>101</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>82</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3001,34 +4227,34 @@
         <v>92</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>81</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>95</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>83</v>
@@ -3040,7 +4266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR10"/>
   <sheetViews>
@@ -3310,16 +4536,16 @@
         <v>158</v>
       </c>
       <c r="BO1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3327,10 +4553,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>81</v>
@@ -3351,10 +4577,10 @@
         <v>86</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>81</v>
@@ -3369,7 +4595,7 @@
         <v>101</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>81</v>
@@ -3387,7 +4613,7 @@
         <v>83</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>162</v>
@@ -3435,7 +4661,7 @@
         <v>81</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BB2" s="1" t="s">
         <v>83</v>
@@ -3479,10 +4705,10 @@
         <v>164</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>81</v>
@@ -3503,10 +4729,10 @@
         <v>86</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>81</v>
@@ -3521,7 +4747,7 @@
         <v>101</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>81</v>
@@ -3539,7 +4765,7 @@
         <v>83</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>162</v>
@@ -3587,7 +4813,7 @@
         <v>81</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BB3" s="1" t="s">
         <v>83</v>
@@ -3631,10 +4857,10 @@
         <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>81</v>
@@ -3655,10 +4881,10 @@
         <v>86</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>81</v>
@@ -3673,7 +4899,7 @@
         <v>101</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>81</v>
@@ -3691,7 +4917,7 @@
         <v>83</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>100</v>
@@ -3739,7 +4965,7 @@
         <v>81</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BB4" s="1" t="s">
         <v>83</v>
@@ -3783,10 +5009,10 @@
         <v>166</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>81</v>
@@ -3795,7 +5021,7 @@
         <v>92</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>159</v>
@@ -3807,10 +5033,10 @@
         <v>86</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>81</v>
@@ -3825,7 +5051,7 @@
         <v>101</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>81</v>
@@ -3843,7 +5069,7 @@
         <v>83</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>162</v>
@@ -3891,7 +5117,7 @@
         <v>81</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BB5" s="1" t="s">
         <v>83</v>
@@ -3935,10 +5161,10 @@
         <v>270</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>81</v>
@@ -3949,7 +5175,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>159</v>
@@ -3964,7 +5190,7 @@
         <v>95</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>81</v>
@@ -3981,7 +5207,7 @@
         <v>101</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>81</v>
@@ -4004,7 +5230,7 @@
         <v>83</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF6" s="3" t="s">
         <v>100</v>
@@ -4058,7 +5284,7 @@
         <v>81</v>
       </c>
       <c r="BA6" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BB6" s="3" t="s">
         <v>83</v>
@@ -4104,13 +5330,13 @@
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>81</v>
@@ -4121,7 +5347,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>159</v>
@@ -4133,10 +5359,10 @@
         <v>86</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>81</v>
@@ -4153,7 +5379,7 @@
         <v>101</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>81</v>
@@ -4176,7 +5402,7 @@
         <v>83</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF7" s="3" t="s">
         <v>162</v>
@@ -4230,7 +5456,7 @@
         <v>81</v>
       </c>
       <c r="BA7" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BB7" s="3" t="s">
         <v>83</v>
@@ -4276,13 +5502,13 @@
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>81</v>
@@ -4293,7 +5519,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>159</v>
@@ -4305,10 +5531,10 @@
         <v>86</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>81</v>
@@ -4325,7 +5551,7 @@
         <v>101</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>81</v>
@@ -4348,7 +5574,7 @@
         <v>83</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF8" s="3" t="s">
         <v>100</v>
@@ -4402,7 +5628,7 @@
         <v>81</v>
       </c>
       <c r="BA8" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BB8" s="3" t="s">
         <v>83</v>
@@ -4448,13 +5674,13 @@
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>81</v>
@@ -4465,7 +5691,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>159</v>
@@ -4477,10 +5703,10 @@
         <v>86</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>81</v>
@@ -4497,7 +5723,7 @@
         <v>101</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>81</v>
@@ -4520,7 +5746,7 @@
         <v>83</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF9" s="3" t="s">
         <v>162</v>
@@ -4574,7 +5800,7 @@
         <v>81</v>
       </c>
       <c r="BA9" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BB9" s="3" t="s">
         <v>83</v>
@@ -4620,13 +5846,13 @@
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>81</v>
@@ -4637,7 +5863,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>159</v>
@@ -4649,10 +5875,10 @@
         <v>86</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>81</v>
@@ -4669,7 +5895,7 @@
         <v>101</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>81</v>
@@ -4692,7 +5918,7 @@
         <v>83</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF10" s="3" t="s">
         <v>100</v>
@@ -4746,7 +5972,7 @@
         <v>81</v>
       </c>
       <c r="BA10" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BB10" s="3" t="s">
         <v>83</v>
@@ -4796,12 +6022,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI18"/>
+  <dimension ref="A1:EI32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5327,27 +6553,27 @@
         <v>136</v>
       </c>
       <c r="ED1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="EE1" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="EF1" s="1" t="s">
         <v>97</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="EH1" s="1" t="s">
         <v>127</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>274</v>
@@ -5356,16 +6582,16 @@
         <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>91</v>
@@ -5404,13 +6630,13 @@
         <v>159</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>83</v>
@@ -5419,10 +6645,10 @@
         <v>83</v>
       </c>
       <c r="AA2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>83</v>
@@ -5572,7 +6798,7 @@
         <v>81</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>163</v>
@@ -5611,7 +6837,7 @@
         <v>163</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>83</v>
@@ -5673,7 +6899,7 @@
     </row>
     <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>264</v>
@@ -5682,16 +6908,16 @@
         <v>84</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>91</v>
@@ -5730,13 +6956,13 @@
         <v>159</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>83</v>
@@ -5745,7 +6971,7 @@
         <v>83</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>81</v>
@@ -5898,7 +7124,7 @@
         <v>81</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>163</v>
@@ -5937,7 +7163,7 @@
         <v>163</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>83</v>
@@ -5999,7 +7225,7 @@
     </row>
     <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>264</v>
@@ -6008,16 +7234,16 @@
         <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>91</v>
@@ -6056,13 +7282,13 @@
         <v>159</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>83</v>
@@ -6071,7 +7297,7 @@
         <v>83</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>81</v>
@@ -6224,7 +7450,7 @@
         <v>81</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>163</v>
@@ -6263,7 +7489,7 @@
         <v>163</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>83</v>
@@ -6325,7 +7551,7 @@
     </row>
     <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>274</v>
@@ -6334,16 +7560,16 @@
         <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>91</v>
@@ -6358,7 +7584,7 @@
         <v>92</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>284</v>
@@ -6382,13 +7608,13 @@
         <v>159</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>83</v>
@@ -6397,10 +7623,10 @@
         <v>83</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>83</v>
@@ -6550,7 +7776,7 @@
         <v>81</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>163</v>
@@ -6589,7 +7815,7 @@
         <v>163</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="DK5" s="1" t="s">
         <v>83</v>
@@ -6651,7 +7877,7 @@
     </row>
     <row r="6" spans="1:139" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>274</v>
@@ -6660,16 +7886,16 @@
         <v>84</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>91</v>
@@ -6684,7 +7910,7 @@
         <v>92</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>285</v>
@@ -6711,10 +7937,10 @@
         <v>95</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y6" s="3" t="s">
         <v>83</v>
@@ -6723,7 +7949,7 @@
         <v>83</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AB6" s="3" t="s">
         <v>81</v>
@@ -6876,7 +8102,7 @@
         <v>81</v>
       </c>
       <c r="CH6" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="CJ6" s="3" t="s">
         <v>163</v>
@@ -6915,7 +8141,7 @@
         <v>163</v>
       </c>
       <c r="DJ6" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="DK6" s="3" t="s">
         <v>83</v>
@@ -6977,7 +8203,7 @@
     </row>
     <row r="7" spans="1:139" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>274</v>
@@ -6986,16 +8212,16 @@
         <v>84</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>91</v>
@@ -7010,10 +8236,10 @@
         <v>92</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>85</v>
@@ -7034,25 +8260,25 @@
         <v>159</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X7" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB7" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>83</v>
@@ -7202,7 +8428,7 @@
         <v>81</v>
       </c>
       <c r="CH7" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="CJ7" s="3" t="s">
         <v>163</v>
@@ -7241,7 +8467,7 @@
         <v>163</v>
       </c>
       <c r="DJ7" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="DK7" s="3" t="s">
         <v>83</v>
@@ -7303,7 +8529,7 @@
     </row>
     <row r="8" spans="1:139" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>274</v>
@@ -7312,16 +8538,16 @@
         <v>84</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>91</v>
@@ -7336,10 +8562,10 @@
         <v>92</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>85</v>
@@ -7360,25 +8586,25 @@
         <v>159</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X8" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB8" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>83</v>
@@ -7528,7 +8754,7 @@
         <v>81</v>
       </c>
       <c r="CH8" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CJ8" s="3" t="s">
         <v>163</v>
@@ -7567,7 +8793,7 @@
         <v>163</v>
       </c>
       <c r="DJ8" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="DK8" s="3" t="s">
         <v>83</v>
@@ -7629,7 +8855,7 @@
     </row>
     <row r="9" spans="1:139" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>264</v>
@@ -7638,16 +8864,16 @@
         <v>84</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>91</v>
@@ -7662,10 +8888,10 @@
         <v>92</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>85</v>
@@ -7686,13 +8912,13 @@
         <v>159</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>83</v>
@@ -7701,7 +8927,7 @@
         <v>83</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>81</v>
@@ -7854,7 +9080,7 @@
         <v>81</v>
       </c>
       <c r="CH9" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CJ9" s="3" t="s">
         <v>163</v>
@@ -7893,7 +9119,7 @@
         <v>163</v>
       </c>
       <c r="DJ9" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="DK9" s="3" t="s">
         <v>83</v>
@@ -7955,7 +9181,7 @@
     </row>
     <row r="10" spans="1:139" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>264</v>
@@ -7964,16 +9190,16 @@
         <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>91</v>
@@ -7988,10 +9214,10 @@
         <v>92</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>85</v>
@@ -8012,13 +9238,13 @@
         <v>159</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>83</v>
@@ -8027,7 +9253,7 @@
         <v>83</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AB10" s="3" t="s">
         <v>81</v>
@@ -8180,7 +9406,7 @@
         <v>81</v>
       </c>
       <c r="CH10" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="CJ10" s="3" t="s">
         <v>163</v>
@@ -8219,7 +9445,7 @@
         <v>163</v>
       </c>
       <c r="DJ10" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="DK10" s="3" t="s">
         <v>83</v>
@@ -8287,8 +9513,331 @@
     <row r="16" spans="1:139" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>